--- a/biology/Botanique/Schlegeliaceae/Schlegeliaceae.xlsx
+++ b/biology/Botanique/Schlegeliaceae/Schlegeliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Schlegéliacées regroupe des plantes dicotylédones ; elle comprend 3 à 5 genres.
 Ce sont des arbres, arbustes et lianes, d'Amerique.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Schlegelia, nommé en hommage à l’ornithologue et herpétologiste  Hermann Schlegel (1804–1884), qui fut conservateur et directeur du muséum  zoologique de Leyde (Hollande) et publia une œuvre zoologique considérable entre 1834 et 1872.
 </t>
@@ -543,24 +557,26 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015) :
 Exarata (en) A.H.Gentry (1992)
 Gibsoniothamnus (en) L.O.Williams, Fieldiana (1970)
 Schlegelia (en) Miq. (1844)
 Synapsis (en) Griseb. (1866)
 Thomandersia (en) Baill. (1891)
-Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[2] :
+Selon Angiosperm Phylogeny Website                        (12 nov. 2015) :
 Exarata Gentry
 Gibsoniothamnus L. O. Williams
 Schlegelia Miquel
 Synapsis Grisebach
-Selon NCBI  (12 nov. 2015)[3] :
+Selon NCBI  (12 nov. 2015) :
 Exarata
 Schlegelia
 Synapsis
-Selon ITIS      (12 nov. 2015)[4] :
+Selon ITIS      (12 nov. 2015) :
 genre Schlegelia</t>
         </is>
       </c>
@@ -589,9 +605,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 Jul 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 Jul 2010) :
 genre Exarata A.H.Gentry (1992)
 Exarata chocoensis A.H.Gentry (1992)
 genre Gibsoniothamnus L.O.Williams, Fieldiana (1970)
@@ -640,7 +658,7 @@
 Thomandersia hensii De Wild. &amp; T.Durand, Bull. Soc. Roy. Bot. Belgique (1899)
 Thomandersia laurentii De Wild. (1905)
 Thomandersia laurifolia (T.Anderson ex Benth.) Baill. (1891)
-Selon NCBI  (8 Jul 2010)[6] :
+Selon NCBI  (8 Jul 2010) :
 genre Exarata
 Exarata chocoensis
 genre Schlegelia
